--- a/Code/Results/Cases/Case_4_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.50518321081841</v>
+        <v>18.06930079656841</v>
       </c>
       <c r="C2">
-        <v>16.22970081732482</v>
+        <v>9.353341632968561</v>
       </c>
       <c r="D2">
-        <v>7.167260158517647</v>
+        <v>6.007124275456278</v>
       </c>
       <c r="E2">
-        <v>6.850374430968628</v>
+        <v>10.47931659354342</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.44989015594884</v>
+        <v>44.73420541563187</v>
       </c>
       <c r="H2">
-        <v>12.79641481986933</v>
+        <v>17.8721191610929</v>
       </c>
       <c r="I2">
-        <v>19.27985028007934</v>
+        <v>27.08284930237485</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.380788967704361</v>
+        <v>10.19120048263675</v>
       </c>
       <c r="M2">
-        <v>13.08633474174723</v>
+        <v>16.24703669116382</v>
       </c>
       <c r="N2">
-        <v>12.36238181104515</v>
+        <v>19.21324923203129</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.92742908954751</v>
+        <v>17.63239344643055</v>
       </c>
       <c r="C3">
-        <v>15.15015693256929</v>
+        <v>8.794550449536404</v>
       </c>
       <c r="D3">
-        <v>6.659130336959961</v>
+        <v>5.893121094777782</v>
       </c>
       <c r="E3">
-        <v>6.829478900834348</v>
+        <v>10.47807820660055</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>41.42361971069581</v>
+        <v>44.42195685623381</v>
       </c>
       <c r="H3">
-        <v>12.53192512667823</v>
+        <v>17.88449843640579</v>
       </c>
       <c r="I3">
-        <v>19.00222771935618</v>
+        <v>27.12715772226077</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.293109347076752</v>
+        <v>10.20135640171817</v>
       </c>
       <c r="M3">
-        <v>12.4803425002756</v>
+        <v>16.16692492213395</v>
       </c>
       <c r="N3">
-        <v>12.62971565763321</v>
+        <v>19.28554343610849</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.90679120059846</v>
+        <v>17.36322426951491</v>
       </c>
       <c r="C4">
-        <v>14.45339238698726</v>
+        <v>8.431349878735141</v>
       </c>
       <c r="D4">
-        <v>6.330998720897949</v>
+        <v>5.823916824656052</v>
       </c>
       <c r="E4">
-        <v>6.817325607250972</v>
+        <v>10.47746403678979</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>40.18349952863657</v>
+        <v>44.24503670219829</v>
       </c>
       <c r="H4">
-        <v>12.37956721723592</v>
+        <v>17.89627825539144</v>
       </c>
       <c r="I4">
-        <v>18.85073588794581</v>
+        <v>27.16094331229372</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.242298439180831</v>
+        <v>10.20911894682138</v>
       </c>
       <c r="M4">
-        <v>12.10133239417837</v>
+        <v>16.12089204758946</v>
       </c>
       <c r="N4">
-        <v>12.79638984446925</v>
+        <v>19.33186586191299</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.47770845530897</v>
+        <v>17.25348143649261</v>
       </c>
       <c r="C5">
-        <v>14.16084720401524</v>
+        <v>8.278312829030545</v>
       </c>
       <c r="D5">
-        <v>6.203498442885178</v>
+        <v>5.795957076022169</v>
       </c>
       <c r="E5">
-        <v>6.812529997438292</v>
+        <v>10.47725050203904</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39.67971248780921</v>
+        <v>44.17672334632183</v>
       </c>
       <c r="H5">
-        <v>12.31997006485966</v>
+        <v>17.90212698487872</v>
       </c>
       <c r="I5">
-        <v>18.79361166727592</v>
+        <v>27.17635959772396</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.22234952867723</v>
+        <v>10.21266628178528</v>
       </c>
       <c r="M5">
-        <v>11.94533073031212</v>
+        <v>16.10294119095822</v>
       </c>
       <c r="N5">
-        <v>12.86499626465329</v>
+        <v>19.35123047021305</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.40566135304447</v>
+        <v>17.23526063896471</v>
       </c>
       <c r="C6">
-        <v>14.1117483726656</v>
+        <v>8.252598239377576</v>
       </c>
       <c r="D6">
-        <v>6.183942964283764</v>
+        <v>5.791330193725875</v>
       </c>
       <c r="E6">
-        <v>6.81174280596693</v>
+        <v>10.47721726347017</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>39.59617208267782</v>
+        <v>44.16561007958616</v>
       </c>
       <c r="H6">
-        <v>12.31022327845022</v>
+        <v>17.90316139923375</v>
       </c>
       <c r="I6">
-        <v>18.78439980724529</v>
+        <v>27.17901882646368</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.219082621279987</v>
+        <v>10.21327851079403</v>
       </c>
       <c r="M6">
-        <v>11.91933921678648</v>
+        <v>16.10000965690816</v>
       </c>
       <c r="N6">
-        <v>12.87643108058382</v>
+        <v>19.35447546170717</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.90105788748328</v>
+        <v>17.36174422498566</v>
       </c>
       <c r="C7">
-        <v>14.44948196766132</v>
+        <v>8.429306294610679</v>
       </c>
       <c r="D7">
-        <v>6.329156628761114</v>
+        <v>5.823538716320019</v>
       </c>
       <c r="E7">
-        <v>6.817260313065773</v>
+        <v>10.47746100821803</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>40.17669810882714</v>
+        <v>44.24410001241716</v>
       </c>
       <c r="H7">
-        <v>12.37875343687584</v>
+        <v>17.89635289231582</v>
       </c>
       <c r="I7">
-        <v>18.84994704332865</v>
+        <v>27.16114455618233</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.242026341776742</v>
+        <v>10.20916523238313</v>
       </c>
       <c r="M7">
-        <v>12.09923451038072</v>
+        <v>16.12064666681978</v>
       </c>
       <c r="N7">
-        <v>12.79731225695274</v>
+        <v>19.33212504238767</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.97186919869568</v>
+        <v>17.91894551834746</v>
       </c>
       <c r="C8">
-        <v>15.86446269370727</v>
+        <v>9.164854500492373</v>
       </c>
       <c r="D8">
-        <v>6.995372269666465</v>
+        <v>5.967676230329774</v>
       </c>
       <c r="E8">
-        <v>6.843020893290196</v>
+        <v>10.478859239737</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>42.75070637885291</v>
+        <v>44.62350902663126</v>
       </c>
       <c r="H8">
-        <v>12.70311538230284</v>
+        <v>17.87551885965781</v>
       </c>
       <c r="I8">
-        <v>19.18009518665156</v>
+        <v>27.09675756610119</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.349927249325934</v>
+        <v>10.19438545126653</v>
       </c>
       <c r="M8">
-        <v>12.87893087794745</v>
+        <v>16.21876801063176</v>
       </c>
       <c r="N8">
-        <v>12.45406395173819</v>
+        <v>19.23777597718578</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.6269576260641</v>
+        <v>18.99713470670969</v>
       </c>
       <c r="C9">
-        <v>18.37435816788318</v>
+        <v>10.44708828682585</v>
       </c>
       <c r="D9">
-        <v>8.176415437323149</v>
+        <v>6.254805301328537</v>
       </c>
       <c r="E9">
-        <v>6.899571082512236</v>
+        <v>10.48276265479756</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>47.81073808715794</v>
+        <v>45.48191910058652</v>
       </c>
       <c r="H9">
-        <v>13.4202827132191</v>
+        <v>17.86791279053964</v>
       </c>
       <c r="I9">
-        <v>19.98480762914066</v>
+        <v>27.02296210813679</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.585674184993731</v>
+        <v>10.17750972897146</v>
       </c>
       <c r="M9">
-        <v>14.42981532869186</v>
+        <v>16.43554919520026</v>
       </c>
       <c r="N9">
-        <v>11.7986361975073</v>
+        <v>19.06802217213474</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.07428434307731</v>
+        <v>19.77125921411616</v>
       </c>
       <c r="C10">
-        <v>20.06384247990837</v>
+        <v>11.29102080999303</v>
       </c>
       <c r="D10">
-        <v>8.971606888366223</v>
+        <v>6.466093588959263</v>
       </c>
       <c r="E10">
-        <v>6.94584594618645</v>
+        <v>10.4863412875044</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51.51809422871884</v>
+        <v>46.17774429686991</v>
       </c>
       <c r="H10">
-        <v>13.99867211445909</v>
+        <v>17.88269284799925</v>
       </c>
       <c r="I10">
-        <v>20.68087129035938</v>
+        <v>27.0010511645252</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.773850535132612</v>
+        <v>10.17248026331658</v>
       </c>
       <c r="M10">
-        <v>15.7781776607513</v>
+        <v>16.60870048175372</v>
       </c>
       <c r="N10">
-        <v>11.32425267249952</v>
+        <v>18.95249961228227</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.13827113824316</v>
+        <v>20.11775384964022</v>
       </c>
       <c r="C11">
-        <v>20.80068578267185</v>
+        <v>11.65363273670293</v>
       </c>
       <c r="D11">
-        <v>9.318559385582542</v>
+        <v>6.561802981513459</v>
       </c>
       <c r="E11">
-        <v>6.96819796249918</v>
+        <v>10.48812428589902</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.20113084792899</v>
+        <v>46.50733497796281</v>
       </c>
       <c r="H11">
-        <v>14.27350083356118</v>
+        <v>17.89385016006397</v>
       </c>
       <c r="I11">
-        <v>21.02218827003183</v>
+        <v>26.99815505329829</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.862781944573223</v>
+        <v>10.17178831725013</v>
       </c>
       <c r="M11">
-        <v>16.36457316700752</v>
+        <v>16.69026029073899</v>
       </c>
       <c r="N11">
-        <v>11.1091137515942</v>
+        <v>18.90191853438709</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.53429808946627</v>
+        <v>20.24801543439036</v>
       </c>
       <c r="C12">
-        <v>21.07531984127603</v>
+        <v>11.78788462578293</v>
       </c>
       <c r="D12">
-        <v>9.447901125018864</v>
+        <v>6.597949005747368</v>
       </c>
       <c r="E12">
-        <v>6.976875864970994</v>
+        <v>10.48882179734938</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>53.83800975536703</v>
+        <v>46.63391953773405</v>
       </c>
       <c r="H12">
-        <v>14.37930969434817</v>
+        <v>17.89871262845035</v>
       </c>
       <c r="I12">
-        <v>21.15514457540093</v>
+        <v>26.99807874348592</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.896944820597168</v>
+        <v>10.17175528477869</v>
       </c>
       <c r="M12">
-        <v>16.58286943964507</v>
+        <v>16.72152620521</v>
       </c>
       <c r="N12">
-        <v>11.02766075777265</v>
+        <v>18.8830464300049</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.44930910032501</v>
+        <v>20.22000548787002</v>
       </c>
       <c r="C13">
-        <v>21.01636495871743</v>
+        <v>11.75910718997488</v>
       </c>
       <c r="D13">
-        <v>9.420134443912739</v>
+        <v>6.590169222467159</v>
       </c>
       <c r="E13">
-        <v>6.974996956954306</v>
+        <v>10.4886705822063</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>53.70086438173053</v>
+        <v>46.6065799748129</v>
       </c>
       <c r="H13">
-        <v>14.35644362654338</v>
+        <v>17.89763706672118</v>
       </c>
       <c r="I13">
-        <v>21.126342542814</v>
+        <v>26.99804974700123</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.889565443645743</v>
+        <v>10.17175222342422</v>
       </c>
       <c r="M13">
-        <v>16.53602056615779</v>
+        <v>16.7147759208989</v>
       </c>
       <c r="N13">
-        <v>11.04520377378037</v>
+        <v>18.88709836422104</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.17098915775892</v>
+        <v>20.12849029127048</v>
       </c>
       <c r="C14">
-        <v>20.82336709357778</v>
+        <v>11.66473905942455</v>
       </c>
       <c r="D14">
-        <v>9.329240815352946</v>
+        <v>6.564778895707161</v>
       </c>
       <c r="E14">
-        <v>6.968907450904307</v>
+        <v>10.48818122290424</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>53.25353555427624</v>
+        <v>46.51771417490659</v>
       </c>
       <c r="H14">
-        <v>14.28217063001195</v>
+        <v>17.89423742582695</v>
       </c>
       <c r="I14">
-        <v>21.0330514245133</v>
+        <v>26.9981283073161</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.865582740655698</v>
+        <v>10.17178101351733</v>
       </c>
       <c r="M14">
-        <v>16.38260713541729</v>
+        <v>16.69282504089806</v>
       </c>
       <c r="N14">
-        <v>11.10241273631495</v>
+        <v>18.90036027502384</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.99962053283051</v>
+        <v>20.07230725697793</v>
       </c>
       <c r="C15">
-        <v>20.70458360609097</v>
+        <v>11.60653725042186</v>
       </c>
       <c r="D15">
-        <v>9.273302594965308</v>
+        <v>6.549212837257048</v>
       </c>
       <c r="E15">
-        <v>6.965206131344309</v>
+        <v>10.48788438499304</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>52.97947867920519</v>
+        <v>46.46350946869372</v>
       </c>
       <c r="H15">
-        <v>14.23690428228908</v>
+        <v>17.89223804722473</v>
       </c>
       <c r="I15">
-        <v>20.97639556888367</v>
+        <v>26.99830940565738</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.850956274652932</v>
+        <v>10.17182845330253</v>
       </c>
       <c r="M15">
-        <v>16.28815122981358</v>
+        <v>16.67942848725387</v>
       </c>
       <c r="N15">
-        <v>11.13745440690428</v>
+        <v>18.90852023839798</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.00377541172428</v>
+        <v>19.74848935903558</v>
       </c>
       <c r="C16">
-        <v>20.01506379988825</v>
+        <v>11.26689475032964</v>
       </c>
       <c r="D16">
-        <v>8.948642266416455</v>
+        <v>6.45982723183496</v>
       </c>
       <c r="E16">
-        <v>6.944413562314542</v>
+        <v>10.48622788722503</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>51.40803526936589</v>
+        <v>46.15645889352782</v>
       </c>
       <c r="H16">
-        <v>13.9809513726566</v>
+        <v>17.88205291137789</v>
       </c>
       <c r="I16">
-        <v>20.65907529219911</v>
+        <v>27.0013830426141</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.768106250749306</v>
+        <v>10.17255755744348</v>
       </c>
       <c r="M16">
-        <v>15.73932248574804</v>
+        <v>16.60342480450948</v>
       </c>
       <c r="N16">
-        <v>11.3383191595591</v>
+        <v>18.95584472911603</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.38036869391266</v>
+        <v>19.54828916202768</v>
       </c>
       <c r="C17">
-        <v>19.58405679090366</v>
+        <v>11.05308030405404</v>
       </c>
       <c r="D17">
-        <v>8.74574474182443</v>
+        <v>6.404859864019532</v>
       </c>
       <c r="E17">
-        <v>6.932009064223858</v>
+        <v>10.48525141613149</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.44311216589804</v>
+        <v>45.97136629671777</v>
       </c>
       <c r="H17">
-        <v>13.82696692359951</v>
+        <v>17.87694033634572</v>
       </c>
       <c r="I17">
-        <v>20.47083943335311</v>
+        <v>27.00508247703063</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.718137808190733</v>
+        <v>10.17341327490555</v>
       </c>
       <c r="M17">
-        <v>15.39580585970942</v>
+        <v>16.55749979706359</v>
       </c>
       <c r="N17">
-        <v>11.46165795695334</v>
+        <v>18.98538042378848</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.01714618868488</v>
+        <v>19.43261410531731</v>
       </c>
       <c r="C18">
-        <v>19.33315695963575</v>
+        <v>10.9280950388172</v>
       </c>
       <c r="D18">
-        <v>8.627646436983579</v>
+        <v>6.373208000253415</v>
       </c>
       <c r="E18">
-        <v>6.924995023572747</v>
+        <v>10.48470436890003</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>49.88777760755065</v>
+        <v>45.86614123644473</v>
       </c>
       <c r="H18">
-        <v>13.73949819321287</v>
+        <v>17.87441709067038</v>
       </c>
       <c r="I18">
-        <v>20.36488370917435</v>
+        <v>27.0078757070407</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.689710026654362</v>
+        <v>10.17405571834909</v>
       </c>
       <c r="M18">
-        <v>15.19567671609813</v>
+        <v>16.53134905920105</v>
       </c>
       <c r="N18">
-        <v>11.53266650754337</v>
+        <v>19.0025541582946</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.89335966354162</v>
+        <v>19.39336258944884</v>
       </c>
       <c r="C19">
-        <v>19.24768723116329</v>
+        <v>10.88543284963605</v>
       </c>
       <c r="D19">
-        <v>8.587417995042705</v>
+        <v>6.362486230520338</v>
       </c>
       <c r="E19">
-        <v>6.922640169627024</v>
+        <v>10.48452165355708</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.69969380034671</v>
+        <v>45.83072903531962</v>
       </c>
       <c r="H19">
-        <v>13.71007014864191</v>
+        <v>17.87363444227954</v>
       </c>
       <c r="I19">
-        <v>20.32940141507473</v>
+        <v>27.00893561314094</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.680138388310594</v>
+        <v>10.1742990595526</v>
       </c>
       <c r="M19">
-        <v>15.12747539176654</v>
+        <v>16.52254084565748</v>
       </c>
       <c r="N19">
-        <v>11.55672265751969</v>
+        <v>19.00840081082903</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.44721177285744</v>
+        <v>19.56965617961467</v>
       </c>
       <c r="C20">
-        <v>19.63024714540703</v>
+        <v>11.07604871112654</v>
       </c>
       <c r="D20">
-        <v>8.767487528930634</v>
+        <v>6.410715254381725</v>
       </c>
       <c r="E20">
-        <v>6.933316871671516</v>
+        <v>10.48535385256664</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.54586475883857</v>
+        <v>45.99094259448474</v>
       </c>
       <c r="H20">
-        <v>13.84324474362054</v>
+        <v>17.8774413816625</v>
       </c>
       <c r="I20">
-        <v>20.4906370005096</v>
+        <v>27.00461977063879</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.723424618544922</v>
+        <v>10.17330663467828</v>
       </c>
       <c r="M20">
-        <v>15.43263660343093</v>
+        <v>16.56236140487268</v>
       </c>
       <c r="N20">
-        <v>11.44852191608885</v>
+        <v>18.98221710266283</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.25292346363134</v>
+        <v>20.15539728510671</v>
       </c>
       <c r="C21">
-        <v>20.88017302186102</v>
+        <v>11.69254033010853</v>
       </c>
       <c r="D21">
-        <v>9.355993176509308</v>
+        <v>6.572239581789793</v>
       </c>
       <c r="E21">
-        <v>6.970690057074079</v>
+        <v>10.48832435334933</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>53.38493807884421</v>
+        <v>46.54376885276021</v>
       </c>
       <c r="H21">
-        <v>14.30393878064836</v>
+        <v>17.89521868672972</v>
       </c>
       <c r="I21">
-        <v>21.06035136275122</v>
+        <v>26.99807751439069</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.872613763082443</v>
+        <v>10.17176634685807</v>
       </c>
       <c r="M21">
-        <v>16.42776937660458</v>
+        <v>16.69926237368475</v>
       </c>
       <c r="N21">
-        <v>11.08560932752225</v>
+        <v>18.89645729314156</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.3930614310914</v>
+        <v>20.53262966012046</v>
       </c>
       <c r="C22">
-        <v>21.67156144192889</v>
+        <v>12.07761141442802</v>
       </c>
       <c r="D22">
-        <v>9.728760326909505</v>
+        <v>6.677222902924409</v>
       </c>
       <c r="E22">
-        <v>6.996376218041064</v>
+        <v>10.49039591085548</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>55.23792649499503</v>
+        <v>46.91537317853241</v>
       </c>
       <c r="H22">
-        <v>14.61518905490716</v>
+        <v>17.91055219953483</v>
       </c>
       <c r="I22">
-        <v>21.45438222190348</v>
+        <v>26.99975052097338</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.972958859382993</v>
+        <v>10.17209412596827</v>
       </c>
       <c r="M22">
-        <v>17.0563005199953</v>
+        <v>16.7909457718985</v>
       </c>
       <c r="N22">
-        <v>10.84847281130553</v>
+        <v>18.84205044423087</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.78813329192691</v>
+        <v>20.33184635895543</v>
       </c>
       <c r="C23">
-        <v>21.2514560764902</v>
+        <v>11.87372324573809</v>
       </c>
       <c r="D23">
-        <v>9.530862308236147</v>
+        <v>6.621256836081056</v>
       </c>
       <c r="E23">
-        <v>6.98254190329171</v>
+        <v>10.48927836115558</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>54.24913165887541</v>
+        <v>46.716133083639</v>
       </c>
       <c r="H23">
-        <v>14.44811839922664</v>
+        <v>17.90202867793579</v>
       </c>
       <c r="I23">
-        <v>21.24204041680629</v>
+        <v>26.99831229857227</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.919139472131477</v>
+        <v>10.17179727247219</v>
       </c>
       <c r="M23">
-        <v>16.72279751922713</v>
+        <v>16.74181729173452</v>
       </c>
       <c r="N23">
-        <v>10.9750608389942</v>
+        <v>18.87093865156349</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.41700703843749</v>
+        <v>19.55999793874415</v>
       </c>
       <c r="C24">
-        <v>19.60937417977376</v>
+        <v>11.06567111242443</v>
       </c>
       <c r="D24">
-        <v>8.757662137001043</v>
+        <v>6.408068186431567</v>
       </c>
       <c r="E24">
-        <v>6.932725247984489</v>
+        <v>10.48530749640712</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.49941214308829</v>
+        <v>45.98208844475768</v>
       </c>
       <c r="H24">
-        <v>13.83588224647384</v>
+        <v>17.87721356310912</v>
       </c>
       <c r="I24">
-        <v>20.48167948171149</v>
+        <v>27.00482688474455</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.721033518500903</v>
+        <v>10.17335437796472</v>
       </c>
       <c r="M24">
-        <v>15.41599364641802</v>
+        <v>16.56016268496889</v>
       </c>
       <c r="N24">
-        <v>11.45446040453192</v>
+        <v>18.98364663798229</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.68069590443495</v>
+        <v>18.70799009189648</v>
       </c>
       <c r="C25">
-        <v>17.72306018301063</v>
+        <v>10.11742631818002</v>
       </c>
       <c r="D25">
-        <v>7.869948247577704</v>
+        <v>6.176901372175259</v>
       </c>
       <c r="E25">
-        <v>6.883526197597892</v>
+        <v>10.48158205310049</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>46.44280911068189</v>
+        <v>45.23789769600648</v>
       </c>
       <c r="H25">
-        <v>13.21738311108643</v>
+        <v>17.86639866951317</v>
       </c>
       <c r="I25">
-        <v>19.74933374039923</v>
+        <v>27.03727326286002</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.519288710221736</v>
+        <v>10.18077978489348</v>
       </c>
       <c r="M25">
-        <v>13.95669974594869</v>
+        <v>16.3743922342711</v>
       </c>
       <c r="N25">
-        <v>11.97441006835465</v>
+        <v>19.11232232147839</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.06930079656841</v>
+        <v>22.50518321081841</v>
       </c>
       <c r="C2">
-        <v>9.353341632968561</v>
+        <v>16.22970081732478</v>
       </c>
       <c r="D2">
-        <v>6.007124275456278</v>
+        <v>7.167260158517585</v>
       </c>
       <c r="E2">
-        <v>10.47931659354342</v>
+        <v>6.850374430968429</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>44.73420541563187</v>
+        <v>43.44989015594901</v>
       </c>
       <c r="H2">
-        <v>17.8721191610929</v>
+        <v>12.79641481986939</v>
       </c>
       <c r="I2">
-        <v>27.08284930237485</v>
+        <v>19.27985028007948</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.19120048263675</v>
+        <v>6.38078896770429</v>
       </c>
       <c r="M2">
-        <v>16.24703669116382</v>
+        <v>13.08633474174724</v>
       </c>
       <c r="N2">
-        <v>19.21324923203129</v>
+        <v>12.36238181104522</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.63239344643055</v>
+        <v>20.92742908954752</v>
       </c>
       <c r="C3">
-        <v>8.794550449536404</v>
+        <v>15.15015693256928</v>
       </c>
       <c r="D3">
-        <v>5.893121094777782</v>
+        <v>6.659130336960054</v>
       </c>
       <c r="E3">
-        <v>10.47807820660055</v>
+        <v>6.82947890083435</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.42195685623381</v>
+        <v>41.42361971069584</v>
       </c>
       <c r="H3">
-        <v>17.88449843640579</v>
+        <v>12.53192512667823</v>
       </c>
       <c r="I3">
-        <v>27.12715772226077</v>
+        <v>19.00222771935618</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.20135640171817</v>
+        <v>6.293109347076767</v>
       </c>
       <c r="M3">
-        <v>16.16692492213395</v>
+        <v>12.4803425002756</v>
       </c>
       <c r="N3">
-        <v>19.28554343610849</v>
+        <v>12.62971565763318</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.36322426951491</v>
+        <v>19.90679120059852</v>
       </c>
       <c r="C4">
-        <v>8.431349878735141</v>
+        <v>14.45339238698715</v>
       </c>
       <c r="D4">
-        <v>5.823916824656052</v>
+        <v>6.330998720898028</v>
       </c>
       <c r="E4">
-        <v>10.47746403678979</v>
+        <v>6.817325607250906</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.24503670219829</v>
+        <v>40.18349952863653</v>
       </c>
       <c r="H4">
-        <v>17.89627825539144</v>
+        <v>12.3795672172358</v>
       </c>
       <c r="I4">
-        <v>27.16094331229372</v>
+        <v>18.85073588794568</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.20911894682138</v>
+        <v>6.242298439180847</v>
       </c>
       <c r="M4">
-        <v>16.12089204758946</v>
+        <v>12.10133239417834</v>
       </c>
       <c r="N4">
-        <v>19.33186586191299</v>
+        <v>12.79638984446919</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.25348143649261</v>
+        <v>19.47770845530897</v>
       </c>
       <c r="C5">
-        <v>8.278312829030545</v>
+        <v>14.16084720401522</v>
       </c>
       <c r="D5">
-        <v>5.795957076022169</v>
+        <v>6.203498442885212</v>
       </c>
       <c r="E5">
-        <v>10.47725050203904</v>
+        <v>6.812529997438226</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.17672334632183</v>
+        <v>39.67971248780925</v>
       </c>
       <c r="H5">
-        <v>17.90212698487872</v>
+        <v>12.31997006485975</v>
       </c>
       <c r="I5">
-        <v>27.17635959772396</v>
+        <v>18.79361166727601</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.21266628178528</v>
+        <v>6.222349528677185</v>
       </c>
       <c r="M5">
-        <v>16.10294119095822</v>
+        <v>11.94533073031212</v>
       </c>
       <c r="N5">
-        <v>19.35123047021305</v>
+        <v>12.86499626465332</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.23526063896471</v>
+        <v>19.40566135304455</v>
       </c>
       <c r="C6">
-        <v>8.252598239377576</v>
+        <v>14.11174837266582</v>
       </c>
       <c r="D6">
-        <v>5.791330193725875</v>
+        <v>6.183942964283756</v>
       </c>
       <c r="E6">
-        <v>10.47721726347017</v>
+        <v>6.811742805967063</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.16561007958616</v>
+        <v>39.5961720826776</v>
       </c>
       <c r="H6">
-        <v>17.90316139923375</v>
+        <v>12.31022327845014</v>
       </c>
       <c r="I6">
-        <v>27.17901882646368</v>
+        <v>18.78439980724514</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.21327851079403</v>
+        <v>6.219082621279991</v>
       </c>
       <c r="M6">
-        <v>16.10000965690816</v>
+        <v>11.91933921678643</v>
       </c>
       <c r="N6">
-        <v>19.35447546170717</v>
+        <v>12.87643108058376</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.36174422498566</v>
+        <v>19.90105788748325</v>
       </c>
       <c r="C7">
-        <v>8.429306294610679</v>
+        <v>14.44948196766124</v>
       </c>
       <c r="D7">
-        <v>5.823538716320019</v>
+        <v>6.329156628761144</v>
       </c>
       <c r="E7">
-        <v>10.47746100821803</v>
+        <v>6.817260313065772</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.24410001241716</v>
+        <v>40.17669810882741</v>
       </c>
       <c r="H7">
-        <v>17.89635289231582</v>
+        <v>12.37875343687594</v>
       </c>
       <c r="I7">
-        <v>27.16114455618233</v>
+        <v>18.84994704332882</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.20916523238313</v>
+        <v>6.242026341776792</v>
       </c>
       <c r="M7">
-        <v>16.12064666681978</v>
+        <v>12.09923451038077</v>
       </c>
       <c r="N7">
-        <v>19.33212504238767</v>
+        <v>12.79731225695284</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.91894551834746</v>
+        <v>21.97186919869579</v>
       </c>
       <c r="C8">
-        <v>9.164854500492373</v>
+        <v>15.86446269370732</v>
       </c>
       <c r="D8">
-        <v>5.967676230329774</v>
+        <v>6.995372269666605</v>
       </c>
       <c r="E8">
-        <v>10.478859239737</v>
+        <v>6.84302089329033</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>44.62350902663126</v>
+        <v>42.75070637885266</v>
       </c>
       <c r="H8">
-        <v>17.87551885965781</v>
+        <v>12.70311538230279</v>
       </c>
       <c r="I8">
-        <v>27.09675756610119</v>
+        <v>19.18009518665135</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.19438545126653</v>
+        <v>6.349927249325993</v>
       </c>
       <c r="M8">
-        <v>16.21876801063176</v>
+        <v>12.87893087794743</v>
       </c>
       <c r="N8">
-        <v>19.23777597718578</v>
+        <v>12.45406395173812</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.99713470670969</v>
+        <v>25.62695762606416</v>
       </c>
       <c r="C9">
-        <v>10.44708828682585</v>
+        <v>18.3743581678831</v>
       </c>
       <c r="D9">
-        <v>6.254805301328537</v>
+        <v>8.176415437323149</v>
       </c>
       <c r="E9">
-        <v>10.48276265479756</v>
+        <v>6.899571082512105</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>45.48191910058652</v>
+        <v>47.81073808715794</v>
       </c>
       <c r="H9">
-        <v>17.86791279053964</v>
+        <v>13.42028271321905</v>
       </c>
       <c r="I9">
-        <v>27.02296210813679</v>
+        <v>19.98480762914057</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.17750972897146</v>
+        <v>6.585674184993724</v>
       </c>
       <c r="M9">
-        <v>16.43554919520026</v>
+        <v>14.42981532869188</v>
       </c>
       <c r="N9">
-        <v>19.06802217213474</v>
+        <v>11.79863619750723</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.77125921411616</v>
+        <v>28.07428434307732</v>
       </c>
       <c r="C10">
-        <v>11.29102080999303</v>
+        <v>20.06384247990831</v>
       </c>
       <c r="D10">
-        <v>6.466093588959263</v>
+        <v>8.97160688836629</v>
       </c>
       <c r="E10">
-        <v>10.4863412875044</v>
+        <v>6.945845946186449</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>46.17774429686991</v>
+        <v>51.51809422871898</v>
       </c>
       <c r="H10">
-        <v>17.88269284799925</v>
+        <v>13.99867211445908</v>
       </c>
       <c r="I10">
-        <v>27.0010511645252</v>
+        <v>20.68087129035944</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.17248026331658</v>
+        <v>6.773850535132651</v>
       </c>
       <c r="M10">
-        <v>16.60870048175372</v>
+        <v>15.77817766075129</v>
       </c>
       <c r="N10">
-        <v>18.95249961228227</v>
+        <v>11.32425267249952</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.11775384964022</v>
+        <v>29.13827113824312</v>
       </c>
       <c r="C11">
-        <v>11.65363273670293</v>
+        <v>20.800685782672</v>
       </c>
       <c r="D11">
-        <v>6.561802981513459</v>
+        <v>9.318559385582494</v>
       </c>
       <c r="E11">
-        <v>10.48812428589902</v>
+        <v>6.968197962499248</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>46.50733497796281</v>
+        <v>53.20113084792902</v>
       </c>
       <c r="H11">
-        <v>17.89385016006397</v>
+        <v>14.27350083356123</v>
       </c>
       <c r="I11">
-        <v>26.99815505329829</v>
+        <v>21.02218827003189</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.17178831725013</v>
+        <v>6.862781944573193</v>
       </c>
       <c r="M11">
-        <v>16.69026029073899</v>
+        <v>16.36457316700751</v>
       </c>
       <c r="N11">
-        <v>18.90191853438709</v>
+        <v>11.10911375159423</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.24801543439036</v>
+        <v>29.53429808946643</v>
       </c>
       <c r="C12">
-        <v>11.78788462578293</v>
+        <v>21.0753198412762</v>
       </c>
       <c r="D12">
-        <v>6.597949005747368</v>
+        <v>9.447901125018811</v>
       </c>
       <c r="E12">
-        <v>10.48882179734938</v>
+        <v>6.976875864971059</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.63391953773405</v>
+        <v>53.83800975536721</v>
       </c>
       <c r="H12">
-        <v>17.89871262845035</v>
+        <v>14.37930969434815</v>
       </c>
       <c r="I12">
-        <v>26.99807874348592</v>
+        <v>21.15514457540087</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.17175528477869</v>
+        <v>6.896944820597138</v>
       </c>
       <c r="M12">
-        <v>16.72152620521</v>
+        <v>16.58286943964518</v>
       </c>
       <c r="N12">
-        <v>18.8830464300049</v>
+        <v>11.02766075777256</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.22000548787002</v>
+        <v>29.44930910032507</v>
       </c>
       <c r="C13">
-        <v>11.75910718997488</v>
+        <v>21.01636495871739</v>
       </c>
       <c r="D13">
-        <v>6.590169222467159</v>
+        <v>9.420134443912715</v>
       </c>
       <c r="E13">
-        <v>10.4886705822063</v>
+        <v>6.974996956954305</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.6065799748129</v>
+        <v>53.7008643817306</v>
       </c>
       <c r="H13">
-        <v>17.89763706672118</v>
+        <v>14.35644362654337</v>
       </c>
       <c r="I13">
-        <v>26.99804974700123</v>
+        <v>21.126342542814</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.17175222342422</v>
+        <v>6.889565443645762</v>
       </c>
       <c r="M13">
-        <v>16.7147759208989</v>
+        <v>16.53602056615782</v>
       </c>
       <c r="N13">
-        <v>18.88709836422104</v>
+        <v>11.04520377378037</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.12849029127048</v>
+        <v>29.17098915775885</v>
       </c>
       <c r="C14">
-        <v>11.66473905942455</v>
+        <v>20.82336709357756</v>
       </c>
       <c r="D14">
-        <v>6.564778895707161</v>
+        <v>9.329240815352914</v>
       </c>
       <c r="E14">
-        <v>10.48818122290424</v>
+        <v>6.968907450904305</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>46.51771417490659</v>
+        <v>53.25353555427619</v>
       </c>
       <c r="H14">
-        <v>17.89423742582695</v>
+        <v>14.282170630012</v>
       </c>
       <c r="I14">
-        <v>26.9981283073161</v>
+        <v>21.03305142451336</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.17178101351733</v>
+        <v>6.86558274065576</v>
       </c>
       <c r="M14">
-        <v>16.69282504089806</v>
+        <v>16.38260713541723</v>
       </c>
       <c r="N14">
-        <v>18.90036027502384</v>
+        <v>11.10241273631502</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.07230725697793</v>
+        <v>28.99962053283054</v>
       </c>
       <c r="C15">
-        <v>11.60653725042186</v>
+        <v>20.70458360609087</v>
       </c>
       <c r="D15">
-        <v>6.549212837257048</v>
+        <v>9.273302594965356</v>
       </c>
       <c r="E15">
-        <v>10.48788438499304</v>
+        <v>6.96520613134424</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>46.46350946869372</v>
+        <v>52.97947867920529</v>
       </c>
       <c r="H15">
-        <v>17.89223804722473</v>
+        <v>14.23690428228909</v>
       </c>
       <c r="I15">
-        <v>26.99830940565738</v>
+        <v>20.97639556888368</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.17182845330253</v>
+        <v>6.850956274652914</v>
       </c>
       <c r="M15">
-        <v>16.67942848725387</v>
+        <v>16.28815122981363</v>
       </c>
       <c r="N15">
-        <v>18.90852023839798</v>
+        <v>11.13745440690425</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.74848935903558</v>
+        <v>28.00377541172427</v>
       </c>
       <c r="C16">
-        <v>11.26689475032964</v>
+        <v>20.01506379988807</v>
       </c>
       <c r="D16">
-        <v>6.45982723183496</v>
+        <v>8.948642266416359</v>
       </c>
       <c r="E16">
-        <v>10.48622788722503</v>
+        <v>6.944413562314542</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>46.15645889352782</v>
+        <v>51.40803526936598</v>
       </c>
       <c r="H16">
-        <v>17.88205291137789</v>
+        <v>13.98095137265667</v>
       </c>
       <c r="I16">
-        <v>27.0013830426141</v>
+        <v>20.65907529219918</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.17255755744348</v>
+        <v>6.7681062507494</v>
       </c>
       <c r="M16">
-        <v>16.60342480450948</v>
+        <v>15.73932248574799</v>
       </c>
       <c r="N16">
-        <v>18.95584472911603</v>
+        <v>11.33831915955914</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.54828916202768</v>
+        <v>27.38036869391272</v>
       </c>
       <c r="C17">
-        <v>11.05308030405404</v>
+        <v>19.58405679090366</v>
       </c>
       <c r="D17">
-        <v>6.404859864019532</v>
+        <v>8.745744741824346</v>
       </c>
       <c r="E17">
-        <v>10.48525141613149</v>
+        <v>6.93200906422386</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>45.97136629671777</v>
+        <v>50.44311216589804</v>
       </c>
       <c r="H17">
-        <v>17.87694033634572</v>
+        <v>13.82696692359948</v>
       </c>
       <c r="I17">
-        <v>27.00508247703063</v>
+        <v>20.47083943335309</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.17341327490555</v>
+        <v>6.71813780819069</v>
       </c>
       <c r="M17">
-        <v>16.55749979706359</v>
+        <v>15.39580585970945</v>
       </c>
       <c r="N17">
-        <v>18.98538042378848</v>
+        <v>11.46165795695331</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.43261410531731</v>
+        <v>27.0171461886848</v>
       </c>
       <c r="C18">
-        <v>10.9280950388172</v>
+        <v>19.33315695963571</v>
       </c>
       <c r="D18">
-        <v>6.373208000253415</v>
+        <v>8.627646436983504</v>
       </c>
       <c r="E18">
-        <v>10.48470436890003</v>
+        <v>6.924995023572815</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>45.86614123644473</v>
+        <v>49.88777760755073</v>
       </c>
       <c r="H18">
-        <v>17.87441709067038</v>
+        <v>13.73949819321294</v>
       </c>
       <c r="I18">
-        <v>27.0078757070407</v>
+        <v>20.36488370917446</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.17405571834909</v>
+        <v>6.689710026654303</v>
       </c>
       <c r="M18">
-        <v>16.53134905920105</v>
+        <v>15.19567671609809</v>
       </c>
       <c r="N18">
-        <v>19.0025541582946</v>
+        <v>11.53266650754341</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.39336258944884</v>
+        <v>26.89335966354174</v>
       </c>
       <c r="C19">
-        <v>10.88543284963605</v>
+        <v>19.24768723116351</v>
       </c>
       <c r="D19">
-        <v>6.362486230520338</v>
+        <v>8.587417995042795</v>
       </c>
       <c r="E19">
-        <v>10.48452165355708</v>
+        <v>6.922640169627026</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>45.83072903531962</v>
+        <v>49.69969380034677</v>
       </c>
       <c r="H19">
-        <v>17.87363444227954</v>
+        <v>13.7100701486419</v>
       </c>
       <c r="I19">
-        <v>27.00893561314094</v>
+        <v>20.32940141507462</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.1742990595526</v>
+        <v>6.680138388310601</v>
       </c>
       <c r="M19">
-        <v>16.52254084565748</v>
+        <v>15.1274753917666</v>
       </c>
       <c r="N19">
-        <v>19.00840081082903</v>
+        <v>11.55672265751953</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.56965617961467</v>
+        <v>27.44721177285747</v>
       </c>
       <c r="C20">
-        <v>11.07604871112654</v>
+        <v>19.63024714540708</v>
       </c>
       <c r="D20">
-        <v>6.410715254381725</v>
+        <v>8.767487528930609</v>
       </c>
       <c r="E20">
-        <v>10.48535385256664</v>
+        <v>6.933316871671515</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>45.99094259448474</v>
+        <v>50.54586475883868</v>
       </c>
       <c r="H20">
-        <v>17.8774413816625</v>
+        <v>13.84324474362062</v>
       </c>
       <c r="I20">
-        <v>27.00461977063879</v>
+        <v>20.4906370005097</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.17330663467828</v>
+        <v>6.723424618544882</v>
       </c>
       <c r="M20">
-        <v>16.56236140487268</v>
+        <v>15.43263660343097</v>
       </c>
       <c r="N20">
-        <v>18.98221710266283</v>
+        <v>11.44852191608896</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.15539728510671</v>
+        <v>29.25292346363126</v>
       </c>
       <c r="C21">
-        <v>11.69254033010853</v>
+        <v>20.88017302186111</v>
       </c>
       <c r="D21">
-        <v>6.572239581789793</v>
+        <v>9.355993176509317</v>
       </c>
       <c r="E21">
-        <v>10.48832435334933</v>
+        <v>6.970690057074011</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>46.54376885276021</v>
+        <v>53.38493807884424</v>
       </c>
       <c r="H21">
-        <v>17.89521868672972</v>
+        <v>14.30393878064837</v>
       </c>
       <c r="I21">
-        <v>26.99807751439069</v>
+        <v>21.06035136275133</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.17176634685807</v>
+        <v>6.872613763082398</v>
       </c>
       <c r="M21">
-        <v>16.69926237368475</v>
+        <v>16.42776937660456</v>
       </c>
       <c r="N21">
-        <v>18.89645729314156</v>
+        <v>11.08560932752239</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.53262966012046</v>
+        <v>30.39306143109141</v>
       </c>
       <c r="C22">
-        <v>12.07761141442802</v>
+        <v>21.67156144192875</v>
       </c>
       <c r="D22">
-        <v>6.677222902924409</v>
+        <v>9.72876032690953</v>
       </c>
       <c r="E22">
-        <v>10.49039591085548</v>
+        <v>6.996376218041061</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.91537317853241</v>
+        <v>55.237926494995</v>
       </c>
       <c r="H22">
-        <v>17.91055219953483</v>
+        <v>14.61518905490716</v>
       </c>
       <c r="I22">
-        <v>26.99975052097338</v>
+        <v>21.45438222190348</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.17209412596827</v>
+        <v>6.972958859383022</v>
       </c>
       <c r="M22">
-        <v>16.7909457718985</v>
+        <v>17.0563005199953</v>
       </c>
       <c r="N22">
-        <v>18.84205044423087</v>
+        <v>10.84847281130553</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.33184635895543</v>
+        <v>29.78813329192691</v>
       </c>
       <c r="C23">
-        <v>11.87372324573809</v>
+        <v>21.25145607649016</v>
       </c>
       <c r="D23">
-        <v>6.621256836081056</v>
+        <v>9.530862308236108</v>
       </c>
       <c r="E23">
-        <v>10.48927836115558</v>
+        <v>6.982541903291708</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.716133083639</v>
+        <v>54.24913165887546</v>
       </c>
       <c r="H23">
-        <v>17.90202867793579</v>
+        <v>14.44811839922664</v>
       </c>
       <c r="I23">
-        <v>26.99831229857227</v>
+        <v>21.24204041680631</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.17179727247219</v>
+        <v>6.919139472131467</v>
       </c>
       <c r="M23">
-        <v>16.74181729173452</v>
+        <v>16.72279751922713</v>
       </c>
       <c r="N23">
-        <v>18.87093865156349</v>
+        <v>10.9750608389942</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.55999793874415</v>
+        <v>27.41700703843757</v>
       </c>
       <c r="C24">
-        <v>11.06567111242443</v>
+        <v>19.60937417977405</v>
       </c>
       <c r="D24">
-        <v>6.408068186431567</v>
+        <v>8.757662137000903</v>
       </c>
       <c r="E24">
-        <v>10.48530749640712</v>
+        <v>6.932725247984557</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>45.98208844475768</v>
+        <v>50.49941214308837</v>
       </c>
       <c r="H24">
-        <v>17.87721356310912</v>
+        <v>13.83588224647379</v>
       </c>
       <c r="I24">
-        <v>27.00482688474455</v>
+        <v>20.4816794817114</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.17335437796472</v>
+        <v>6.72103351850086</v>
       </c>
       <c r="M24">
-        <v>16.56016268496889</v>
+        <v>15.41599364641811</v>
       </c>
       <c r="N24">
-        <v>18.98364663798229</v>
+        <v>11.45446040453179</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.70799009189648</v>
+        <v>24.68069590443499</v>
       </c>
       <c r="C25">
-        <v>10.11742631818002</v>
+        <v>17.72306018301082</v>
       </c>
       <c r="D25">
-        <v>6.176901372175259</v>
+        <v>7.869948247577617</v>
       </c>
       <c r="E25">
-        <v>10.48158205310049</v>
+        <v>6.883526197597956</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>45.23789769600648</v>
+        <v>46.44280911068181</v>
       </c>
       <c r="H25">
-        <v>17.86639866951317</v>
+        <v>13.21738311108633</v>
       </c>
       <c r="I25">
-        <v>27.03727326286002</v>
+        <v>19.74933374039914</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.18077978489348</v>
+        <v>6.519288710221695</v>
       </c>
       <c r="M25">
-        <v>16.3743922342711</v>
+        <v>13.95669974594867</v>
       </c>
       <c r="N25">
-        <v>19.11232232147839</v>
+        <v>11.97441006835462</v>
       </c>
       <c r="O25">
         <v>0</v>
